--- a/pocketsphinx/keywords.xlsx
+++ b/pocketsphinx/keywords.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="334">
   <si>
     <t>厨房</t>
   </si>
@@ -1011,6 +1011,12 @@
   </si>
   <si>
     <t>h a l ou as a l ai k e s a</t>
+  </si>
+  <si>
+    <t>啊</t>
+  </si>
+  <si>
+    <t>as a</t>
   </si>
 </sst>
 </file>
@@ -2127,10 +2133,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U94"/>
+  <dimension ref="A1:U95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C95" sqref="A1:C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3420,6 +3426,12 @@
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>31</v>
+      </c>
+      <c r="C93" t="s">
+        <v>32</v>
+      </c>
       <c r="M93" t="s">
         <v>181</v>
       </c>
@@ -3428,11 +3440,25 @@
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>33</v>
+      </c>
+      <c r="C94" t="s">
+        <v>34</v>
+      </c>
       <c r="M94" t="s">
         <v>182</v>
       </c>
       <c r="O94" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>332</v>
+      </c>
+      <c r="C95" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/pocketsphinx/keywords.xlsx
+++ b/pocketsphinx/keywords.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="338">
   <si>
     <t>厨房</t>
   </si>
@@ -989,34 +989,46 @@
     <t>sh eng g ao d ao</t>
   </si>
   <si>
+    <t>as a l ai k e s a</t>
+  </si>
+  <si>
+    <t>h a l ou a er f a</t>
+  </si>
+  <si>
+    <t>h a l ou as a es er f a</t>
+  </si>
+  <si>
+    <t>h a l ou as a l ai k e s a</t>
+  </si>
+  <si>
+    <t>空调升高一度</t>
+  </si>
+  <si>
+    <t>空调降低一度</t>
+  </si>
+  <si>
+    <t>空调升高五度</t>
+  </si>
+  <si>
+    <t>空调降低五度</t>
+  </si>
+  <si>
+    <t>k ong t iao sh eng g ao y i d u</t>
+  </si>
+  <si>
+    <t>k ong t iao j iang d i y i d u</t>
+  </si>
+  <si>
+    <t>哈喽阿尔法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">哈喽阿尔法(2) </t>
+  </si>
+  <si>
+    <t>哈喽阿里克萨</t>
+  </si>
+  <si>
     <t>阿里克萨</t>
-  </si>
-  <si>
-    <t>as a l ai k e s a</t>
-  </si>
-  <si>
-    <t>哈喽阿尔法</t>
-  </si>
-  <si>
-    <t xml:space="preserve">哈喽阿尔法(2) </t>
-  </si>
-  <si>
-    <t>哈喽阿里克萨</t>
-  </si>
-  <si>
-    <t>h a l ou a er f a</t>
-  </si>
-  <si>
-    <t>h a l ou as a es er f a</t>
-  </si>
-  <si>
-    <t>h a l ou as a l ai k e s a</t>
-  </si>
-  <si>
-    <t>啊</t>
-  </si>
-  <si>
-    <t>as a</t>
   </si>
 </sst>
 </file>
@@ -2133,10 +2145,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U95"/>
+  <dimension ref="A1:U99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C95" sqref="A1:C95"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C99" sqref="A1:C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2615,850 +2627,882 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>256</v>
+        <v>328</v>
       </c>
       <c r="C35" t="s">
-        <v>257</v>
-      </c>
-      <c r="M35" t="s">
-        <v>152</v>
-      </c>
-      <c r="O35" t="s">
-        <v>153</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>258</v>
+        <v>329</v>
       </c>
       <c r="C36" t="s">
-        <v>259</v>
-      </c>
-      <c r="M36" t="s">
-        <v>38</v>
-      </c>
-      <c r="O36" t="s">
-        <v>143</v>
+        <v>333</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>260</v>
+        <v>330</v>
       </c>
       <c r="C37" t="s">
-        <v>261</v>
-      </c>
-      <c r="M37" t="s">
-        <v>21</v>
-      </c>
-      <c r="O37" t="s">
-        <v>144</v>
+        <v>332</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>262</v>
+        <v>331</v>
       </c>
       <c r="C38" t="s">
-        <v>263</v>
-      </c>
-      <c r="M38" t="s">
-        <v>22</v>
-      </c>
-      <c r="O38" t="s">
-        <v>145</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C39" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="M39" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="O39" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C40" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="M40" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="O40" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C41" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M41" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="O41" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C42" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="M42" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="O42" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C43" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="M43" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="O43" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C44" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="M44" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="O44" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C45" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="M45" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="O45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C46" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="M46" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="O46" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C47" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="M47" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="O47" t="s">
-        <v>151</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C48" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="M48" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="O48" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C49" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="M49" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C50" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="M50" t="s">
-        <v>158</v>
+        <v>48</v>
       </c>
       <c r="O50" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C51" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="M51" t="s">
-        <v>160</v>
+        <v>49</v>
       </c>
       <c r="O51" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C52" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="M52" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="O52" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C53" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="M53" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="O53" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C54" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="M54" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="O54" t="s">
-        <v>59</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C55" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="M55" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="O55" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>290</v>
       </c>
       <c r="C56" t="s">
-        <v>155</v>
+        <v>291</v>
       </c>
       <c r="M56" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="O56" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>292</v>
       </c>
       <c r="C57" t="s">
-        <v>154</v>
+        <v>293</v>
       </c>
       <c r="M57" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="O57" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C58" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M58" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O58" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C59" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M59" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="O59" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="C60" t="s">
-        <v>303</v>
+        <v>155</v>
       </c>
       <c r="M60" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="O60" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="C61" t="s">
-        <v>51</v>
+        <v>154</v>
       </c>
       <c r="M61" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="O61" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>158</v>
+        <v>298</v>
       </c>
       <c r="C62" t="s">
-        <v>159</v>
+        <v>299</v>
       </c>
       <c r="M62" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="O62" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C63" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M63" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="O63" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C64" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M64" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="O64" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>308</v>
+        <v>50</v>
       </c>
       <c r="C65" t="s">
-        <v>309</v>
+        <v>51</v>
       </c>
       <c r="M65" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="O65" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>310</v>
+        <v>158</v>
       </c>
       <c r="C66" t="s">
-        <v>311</v>
+        <v>159</v>
       </c>
       <c r="M66" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="O66" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>304</v>
       </c>
       <c r="C67" t="s">
-        <v>65</v>
+        <v>305</v>
       </c>
       <c r="M67" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="O67" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>306</v>
       </c>
       <c r="C68" t="s">
-        <v>67</v>
+        <v>307</v>
       </c>
       <c r="M68" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="O68" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C69" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="M69" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="O69" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C70" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M70" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O70" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>316</v>
+        <v>64</v>
       </c>
       <c r="C71" t="s">
-        <v>317</v>
+        <v>65</v>
       </c>
       <c r="M71" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="O71" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="C72" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="M72" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="O72" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>90</v>
+        <v>312</v>
       </c>
       <c r="C73" t="s">
-        <v>91</v>
+        <v>313</v>
       </c>
       <c r="M73" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="O73" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>92</v>
+        <v>314</v>
       </c>
       <c r="C74" t="s">
-        <v>93</v>
+        <v>315</v>
       </c>
       <c r="M74" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="O74" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>94</v>
+        <v>316</v>
       </c>
       <c r="C75" t="s">
-        <v>95</v>
+        <v>317</v>
       </c>
       <c r="M75" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="O75" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C76" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="M76" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="O76" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>318</v>
+        <v>90</v>
       </c>
       <c r="C77" t="s">
-        <v>319</v>
+        <v>91</v>
       </c>
       <c r="M77" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="O77" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>320</v>
+        <v>92</v>
       </c>
       <c r="C78" t="s">
-        <v>321</v>
+        <v>93</v>
       </c>
       <c r="M78" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="O78" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C79" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="M79" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="O79" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C80" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="M80" t="s">
-        <v>171</v>
+        <v>102</v>
       </c>
       <c r="O80" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>318</v>
       </c>
       <c r="C81" t="s">
-        <v>103</v>
+        <v>319</v>
       </c>
       <c r="M81" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O81" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>178</v>
+        <v>320</v>
       </c>
       <c r="C82" t="s">
-        <v>183</v>
+        <v>321</v>
       </c>
       <c r="M82" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="O82" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="C83" t="s">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="M83" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="O83" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="M84" t="s">
-        <v>31</v>
+        <v>171</v>
       </c>
       <c r="O84" t="s">
-        <v>32</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>181</v>
+        <v>102</v>
       </c>
       <c r="C85" t="s">
-        <v>186</v>
+        <v>103</v>
       </c>
       <c r="M85" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="O85" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C86" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M86" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="O86" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="C87" t="s">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="M87" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="O87" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>322</v>
+        <v>180</v>
       </c>
       <c r="C88" t="s">
-        <v>323</v>
+        <v>185</v>
       </c>
       <c r="M88" t="s">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="O88" t="s">
-        <v>164</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>326</v>
+        <v>181</v>
       </c>
       <c r="C89" t="s">
-        <v>329</v>
+        <v>186</v>
       </c>
       <c r="M89" t="s">
-        <v>172</v>
+        <v>33</v>
       </c>
       <c r="O89" t="s">
-        <v>173</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>327</v>
+        <v>182</v>
       </c>
       <c r="C90" t="s">
-        <v>330</v>
+        <v>187</v>
       </c>
       <c r="M90" t="s">
-        <v>178</v>
+        <v>36</v>
       </c>
       <c r="O90" t="s">
-        <v>183</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>328</v>
+        <v>100</v>
       </c>
       <c r="C91" t="s">
-        <v>331</v>
+        <v>101</v>
       </c>
       <c r="M91" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="O91" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C92" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M92" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="O92" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>31</v>
+        <v>334</v>
       </c>
       <c r="C93" t="s">
-        <v>32</v>
+        <v>325</v>
       </c>
       <c r="M93" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="O93" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>33</v>
+        <v>335</v>
       </c>
       <c r="C94" t="s">
-        <v>34</v>
+        <v>326</v>
       </c>
       <c r="M94" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O94" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C95" t="s">
-        <v>333</v>
+        <v>327</v>
+      </c>
+      <c r="M95" t="s">
+        <v>179</v>
+      </c>
+      <c r="O95" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>337</v>
+      </c>
+      <c r="C96" t="s">
+        <v>324</v>
+      </c>
+      <c r="M96" t="s">
+        <v>180</v>
+      </c>
+      <c r="O96" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>162</v>
+      </c>
+      <c r="C97" t="s">
+        <v>163</v>
+      </c>
+      <c r="M97" t="s">
+        <v>181</v>
+      </c>
+      <c r="O97" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>165</v>
+      </c>
+      <c r="C98" t="s">
+        <v>164</v>
+      </c>
+      <c r="M98" t="s">
+        <v>182</v>
+      </c>
+      <c r="O98" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>70</v>
+      </c>
+      <c r="C99" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/pocketsphinx/keywords.xlsx
+++ b/pocketsphinx/keywords.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="336">
   <si>
     <t>厨房</t>
   </si>
@@ -995,9 +995,6 @@
     <t>h a l ou a er f a</t>
   </si>
   <si>
-    <t>h a l ou as a es er f a</t>
-  </si>
-  <si>
     <t>h a l ou as a l ai k e s a</t>
   </si>
   <si>
@@ -1020,9 +1017,6 @@
   </si>
   <si>
     <t>哈喽阿尔法</t>
-  </si>
-  <si>
-    <t xml:space="preserve">哈喽阿尔法(2) </t>
   </si>
   <si>
     <t>哈喽阿里克萨</t>
@@ -2147,7 +2141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
       <selection activeCell="C99" sqref="A1:C99"/>
     </sheetView>
   </sheetViews>
@@ -2627,34 +2621,34 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C35" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C36" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C37" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C38" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -3415,7 +3409,7 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C93" t="s">
         <v>325</v>
@@ -3429,10 +3423,10 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>335</v>
+        <v>31</v>
       </c>
       <c r="C94" t="s">
-        <v>326</v>
+        <v>32</v>
       </c>
       <c r="M94" t="s">
         <v>178</v>
@@ -3443,10 +3437,10 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C95" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M95" t="s">
         <v>179</v>
@@ -3457,7 +3451,7 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C96" t="s">
         <v>324</v>
